--- a/App/BioDiversityPlant.xlsx
+++ b/App/BioDiversityPlant.xlsx
@@ -1,26 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <x:workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Platform-ModernDev\source\Prod\Microsoft.Dynamics.Nav.CodeAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/soalex_microsoft_com/Documents/Code/bcsamples-onboarding/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00C130A-F9F5-40A8-916B-992F129BDA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Data" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{B00C130A-F9F5-40A8-916B-992F129BDA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF35561-4EA7-4957-AFC3-DCD483D8C993}"/>
+  <bookViews>
+    <workbookView xWindow="5445" yWindow="3015" windowWidth="21615" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <definedNames>
+    <definedName name="Occurrences">OFFSET(Data!$F$2,0,0,COUNTA(Data!$F:$F)-1)</definedName>
+    <definedName name="PlantNames">OFFSET(Data!$B$2,0,0,COUNTA(Data!$B:$B)-1)</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>PlantCode</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>IsPollinator</t>
+  </si>
+  <si>
+    <t>PollinatedBy</t>
+  </si>
+  <si>
+    <t>White Rose</t>
+  </si>
+  <si>
+    <t>Self pollinated</t>
+  </si>
+  <si>
+    <t>Red Rose</t>
+  </si>
+  <si>
+    <t>Yellow Rose</t>
+  </si>
+  <si>
+    <t>Black Rose</t>
+  </si>
+  <si>
+    <t>Purple Rose</t>
+  </si>
+  <si>
+    <t>ReportedOccurencesLastyear</t>
+  </si>
+  <si>
+    <t>New rose</t>
+  </si>
+  <si>
+    <t>Some rose</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33,25 +94,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFCCCAC2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,7 +122,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,24 +168,1173 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plant</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> occurrences last year</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F128-4658-BF25-97E82577C2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F128-4658-BF25-97E82577C2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F128-4658-BF25-97E82577C2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F128-4658-BF25-97E82577C2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F128-4658-BF25-97E82577C2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F128-4658-BF25-97E82577C2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F128-4658-BF25-97E82577C2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[0]!PlantNames</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>White Rose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Red Rose</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yellow Rose</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Black Rose</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Purple Rose</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New rose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Some rose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!Occurrences</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-6E13-416D-9A06-5AA345110A93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6A808B-F544-051A-4711-7D58F33B7026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:E2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="5">
-    <x:tableColumn id="1" name="PlantCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="Name" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="Description" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="IsPollinator" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="PollinatedBy" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:F8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F8" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PlantCode"/>
+    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="IsPollinator"/>
+    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PollinatedBy"/>
+    <tableColumn id="6" xr3:uid="{B3DC1C44-3063-44AB-A12C-75F6BF5212DC}" name="ReportedOccurencesLastyear"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +1372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -273,7 +1478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,47 +1620,180 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" sqref="A1:A2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A1" t="str">
-        <x:v>PlantCode</x:v>
-      </x:c>
-      <x:c r="B1" t="str">
-        <x:v>Name</x:v>
-      </x:c>
-      <x:c r="C1" t="str">
-        <x:v>Description</x:v>
-      </x:c>
-      <x:c r="D1" t="str">
-        <x:v>IsPollinator</x:v>
-      </x:c>
-      <x:c r="E1" t="str">
-        <x:v>PollinatedBy</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId1"/>
-  </x:tableParts>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9CCFDF-8E89-4895-84D2-669601753AB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/App/BioDiversityPlant.xlsx
+++ b/App/BioDiversityPlant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/soalex_microsoft_com/Documents/Code/bcsamples-onboarding/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{B00C130A-F9F5-40A8-916B-992F129BDA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF35561-4EA7-4957-AFC3-DCD483D8C993}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{B00C130A-F9F5-40A8-916B-992F129BDA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25FCE79-521A-4B78-9699-A48415E47F28}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="3015" windowWidth="21615" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -245,17 +245,36 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -276,10 +295,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -300,10 +320,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -324,10 +345,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -348,6 +370,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -372,10 +395,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -396,12 +420,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -467,27 +490,29 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -557,15 +582,81 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1134079567"/>
+        <c:axId val="1567462575"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1134079567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1567462575"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1567462575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1134079567"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -574,6 +665,42 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -635,13 +762,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1280,15 +1404,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1630,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -1781,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9CCFDF-8E89-4895-84D2-669601753AB0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/App/BioDiversityPlant.xlsx
+++ b/App/BioDiversityPlant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/soalex_microsoft_com/Documents/Code/bcsamples-onboarding/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{B00C130A-F9F5-40A8-916B-992F129BDA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25FCE79-521A-4B78-9699-A48415E47F28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Occurrences">OFFSET(Data!$F$2,0,0,COUNTA(Data!$F:$F)-1)</definedName>
     <definedName name="PlantNames">OFFSET(Data!$B$2,0,0,COUNTA(Data!$B:$B)-1)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
   <si>
     <t>PlantCode</t>
   </si>
@@ -55,31 +55,586 @@
     <t>PollinatedBy</t>
   </si>
   <si>
-    <t>White Rose</t>
-  </si>
-  <si>
     <t>Self pollinated</t>
   </si>
   <si>
-    <t>Red Rose</t>
-  </si>
-  <si>
-    <t>Yellow Rose</t>
-  </si>
-  <si>
-    <t>Black Rose</t>
-  </si>
-  <si>
-    <t>Purple Rose</t>
-  </si>
-  <si>
     <t>ReportedOccurencesLastyear</t>
   </si>
   <si>
-    <t>New rose</t>
-  </si>
-  <si>
-    <t>Some rose</t>
+    <t>"ALPINE PASQUEFLOWER"</t>
+  </si>
+  <si>
+    <t>Alpine Pasqueflower</t>
+  </si>
+  <si>
+    <t>Alpine Pasqueflower is a small, delicate flower native to the mountains of Europe. It has a white, bell-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in rocky, alpine meadows.</t>
+  </si>
+  <si>
+    <t>"ANEMONE CORONARIA"</t>
+  </si>
+  <si>
+    <t>Anemone Coronaria</t>
+  </si>
+  <si>
+    <t>Anemone Coronaria is a bright, colorful flower native to the Mediterranean region of Europe. It has a large, cup-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in gardens and meadows.</t>
+  </si>
+  <si>
+    <t>"BELLFLOWER"</t>
+  </si>
+  <si>
+    <t>Bellflower</t>
+  </si>
+  <si>
+    <t>Bellflower is a small, bell-shaped flower native to Europe. It has a white, bell-shaped flower with a yellow center and a long, thin stem. It blooms in the summer and is often found in meadows and woodlands.</t>
+  </si>
+  <si>
+    <t>"BIRD'S-FOOT TREFOIL"</t>
+  </si>
+  <si>
+    <t>Bird's-foot Trefoil</t>
+  </si>
+  <si>
+    <t>Bird's-foot Trefoil is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of luck and good fortune.</t>
+  </si>
+  <si>
+    <t>"BLUEBELL"</t>
+  </si>
+  <si>
+    <t>Bluebell</t>
+  </si>
+  <si>
+    <t>Bluebell is a small, bell-shaped flower native to Europe. It has a blue, bell-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in woodlands and meadows.</t>
+  </si>
+  <si>
+    <t>"BUGLE"</t>
+  </si>
+  <si>
+    <t>Bugle</t>
+  </si>
+  <si>
+    <t>Bugle is a wildflower native to Europe. It has a blue flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of courage and strength.</t>
+  </si>
+  <si>
+    <t>"BUTTERCUP"</t>
+  </si>
+  <si>
+    <t>Buttercup</t>
+  </si>
+  <si>
+    <t>Buttercup is a small, yellow flower native to Europe. It has a yellow, cup-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in meadows and woodlands.</t>
+  </si>
+  <si>
+    <t>"COMMON BIRD'S-FOOT TREFOIL"</t>
+  </si>
+  <si>
+    <t>Common Bird's-foot Trefoil</t>
+  </si>
+  <si>
+    <t>Common Bird's-foot Trefoil is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of luck and good fortune.</t>
+  </si>
+  <si>
+    <t>"COMMON FLEABANE"</t>
+  </si>
+  <si>
+    <t>Common Fleabane</t>
+  </si>
+  <si>
+    <t>Common Fleabane is a wildflower native to Europe. It has a white flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of protection and healing.</t>
+  </si>
+  <si>
+    <t>"COMMON GORSE"</t>
+  </si>
+  <si>
+    <t>Common Gorse</t>
+  </si>
+  <si>
+    <t>Common Gorse is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the spring and is often used as a symbol of courage and strength.</t>
+  </si>
+  <si>
+    <t>"COMMON KNAPWEED"</t>
+  </si>
+  <si>
+    <t>Common Knapweed</t>
+  </si>
+  <si>
+    <t>Common Knapweed is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of protection and healing.</t>
+  </si>
+  <si>
+    <t>"COMMON MILKWORT"</t>
+  </si>
+  <si>
+    <t>Common Milkwort</t>
+  </si>
+  <si>
+    <t>Common Milkwort is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of protection and healing.</t>
+  </si>
+  <si>
+    <t>"COMMON RESTHARROW"</t>
+  </si>
+  <si>
+    <t>Common Restharrow</t>
+  </si>
+  <si>
+    <t>Common Restharrow is a wildflower native to Europe. It has a pink flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of love and romance.</t>
+  </si>
+  <si>
+    <t>"COMMON SORREL"</t>
+  </si>
+  <si>
+    <t>Common Sorrel</t>
+  </si>
+  <si>
+    <t>Common Sorrel is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of joy and happiness.</t>
+  </si>
+  <si>
+    <t>"COMMON STORK'S-BILL"</t>
+  </si>
+  <si>
+    <t>Common Stork's-bill</t>
+  </si>
+  <si>
+    <t>Common Stork's-bill is a wildflower native to Europe. It has a pink flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of love and romance.</t>
+  </si>
+  <si>
+    <t>"COMMON TOADFLAX"</t>
+  </si>
+  <si>
+    <t>Common Toadflax</t>
+  </si>
+  <si>
+    <t>Common Toadflax is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of joy and happiness.</t>
+  </si>
+  <si>
+    <t>"COMMON VALERIAN"</t>
+  </si>
+  <si>
+    <t>Common Valerian</t>
+  </si>
+  <si>
+    <t>Common Valerian is a wildflower native to Europe. It has a pink flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of love and romance.</t>
+  </si>
+  <si>
+    <t>"COMMON VETCH"</t>
+  </si>
+  <si>
+    <t>Common Vetch</t>
+  </si>
+  <si>
+    <t>Common Vetch is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of protection and healing.</t>
+  </si>
+  <si>
+    <t>"CORNFLOWER"</t>
+  </si>
+  <si>
+    <t>Cornflower</t>
+  </si>
+  <si>
+    <t>Cornflower is a wildflower native to Europe. It has a blue flower with a yellow center and a ring of petals. It blooms in the summer and is often used as a symbol of love and loyalty.</t>
+  </si>
+  <si>
+    <t>"COWSLIP"</t>
+  </si>
+  <si>
+    <t>Cowslip</t>
+  </si>
+  <si>
+    <t>Cowslip is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the spring and is often used as a symbol of youth and fertility.</t>
+  </si>
+  <si>
+    <t>"CREEPING CINQUEFOIL"</t>
+  </si>
+  <si>
+    <t>Creeping Cinquefoil</t>
+  </si>
+  <si>
+    <t>Creeping Cinquefoil is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of joy and happiness.</t>
+  </si>
+  <si>
+    <t>"CUCKOO FLOWER"</t>
+  </si>
+  <si>
+    <t>Cuckoo Flower</t>
+  </si>
+  <si>
+    <t>Cuckoo Flower is a wildflower native to Europe. It has a white flower with five petals and a yellow center. It blooms in the spring and is often used as a symbol of joy and happiness.</t>
+  </si>
+  <si>
+    <t>"DAFFODIL"</t>
+  </si>
+  <si>
+    <t>Daffodil</t>
+  </si>
+  <si>
+    <t>Daffodil is a bright, yellow flower native to Europe. It has a yellow, trumpet-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in gardens and meadows.</t>
+  </si>
+  <si>
+    <t>"DAISY"</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Daisy is a wildflower native to Europe. It has a white flower with a yellow center and a ring of petals. It blooms in the summer and is often used as a symbol of innocence and purity.</t>
+  </si>
+  <si>
+    <t>"FIELD BINDWEED"</t>
+  </si>
+  <si>
+    <t>Field Bindweed</t>
+  </si>
+  <si>
+    <t>Field Bindweed is a wildflower native to Europe. It has a white flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of innocence and purity.</t>
+  </si>
+  <si>
+    <t>"FIELD SCABIOUS"</t>
+  </si>
+  <si>
+    <t>Field Scabious</t>
+  </si>
+  <si>
+    <t>Field Scabious is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of faithfulness and loyalty.</t>
+  </si>
+  <si>
+    <t>"FORGET-ME-NOT"</t>
+  </si>
+  <si>
+    <t>Forget-me-not</t>
+  </si>
+  <si>
+    <t>Forget-me-not is a wildflower native to Europe. It has a blue flower with five petals and a yellow center. It blooms in the spring and is often used as a symbol of remembrance and love.</t>
+  </si>
+  <si>
+    <t>"FOXGLOVE"</t>
+  </si>
+  <si>
+    <t>Foxglove</t>
+  </si>
+  <si>
+    <t>Foxglove is a wildflower native to Europe. It has a bell-shaped purple flower with five petals. It blooms in the summer and is often used as a symbol of protection and healing.</t>
+  </si>
+  <si>
+    <t>"GENTIAN"</t>
+  </si>
+  <si>
+    <t>Gentian</t>
+  </si>
+  <si>
+    <t>Gentian is a tall, blue flower native to Europe. It has a blue, trumpet-shaped flower with a yellow center and a long, thin stem. It blooms in the summer and is often found in meadows and woodlands.</t>
+  </si>
+  <si>
+    <t>"GREATER PLANTAIN"</t>
+  </si>
+  <si>
+    <t>Greater Plantain</t>
+  </si>
+  <si>
+    <t>Greater Plantain is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of luck and good fortune.</t>
+  </si>
+  <si>
+    <t>"GREATER STITCHWORT"</t>
+  </si>
+  <si>
+    <t>Greater Stitchwort</t>
+  </si>
+  <si>
+    <t>Greater Stitchwort is a wildflower native to Europe. It has a white flower with five petals and a yellow center. It blooms in the spring and is often used as a symbol of innocence and purity.</t>
+  </si>
+  <si>
+    <t>"HAREBELL"</t>
+  </si>
+  <si>
+    <t>Harebell</t>
+  </si>
+  <si>
+    <t>Harebell is a wildflower native to Europe. It has a blue flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of humility and grace.</t>
+  </si>
+  <si>
+    <t>"HEATH BEDSTRAW"</t>
+  </si>
+  <si>
+    <t>Heath Bedstraw</t>
+  </si>
+  <si>
+    <t>Heath Bedstraw is a wildflower native to Europe. It has a white flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of innocence and purity.</t>
+  </si>
+  <si>
+    <t>"HEATH SPEEDWELL"</t>
+  </si>
+  <si>
+    <t>Heath Speedwell</t>
+  </si>
+  <si>
+    <t>Heath Speedwell is a wildflower native to Europe. It has a blue flower with four petals and a yellow center. It blooms in the summer and is often used as a symbol of faithfulness and loyalty.</t>
+  </si>
+  <si>
+    <t>"HEATHER"</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Heather is a small, purple flower native to Europe. It has a purple, bell-shaped flower with a yellow center and a long, thin stem. It blooms in the summer and is often found in meadows and woodlands.</t>
+  </si>
+  <si>
+    <t>"HEDGE WOUNDWORT"</t>
+  </si>
+  <si>
+    <t>Hedge Woundwort</t>
+  </si>
+  <si>
+    <t>Hedge Woundwort is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of protection and healing.</t>
+  </si>
+  <si>
+    <t>"IRIS"</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Iris is a wildflower native to Europe. It has a colorful flower with three petals and a yellow center. It blooms in the spring and is often used as a symbol of faith, hope, and wisdom.</t>
+  </si>
+  <si>
+    <t>"LADY'S MANTLE"</t>
+  </si>
+  <si>
+    <t>Lady's Mantle</t>
+  </si>
+  <si>
+    <t>Lady's Mantle is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of protection and healing.</t>
+  </si>
+  <si>
+    <t>"LAVENDER"</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>Lavender is a wildflower native to Europe. It has a purple flower with a yellow center and a ring of petals. It blooms in the summer and is often used as a symbol of calmness and relaxation.</t>
+  </si>
+  <si>
+    <t>"LILY OF THE VALLEY"</t>
+  </si>
+  <si>
+    <t>Lily of the Valley</t>
+  </si>
+  <si>
+    <t>Lily of the Valley is a small, white flower native to Europe. It has a white, bell-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in woodlands and meadows.</t>
+  </si>
+  <si>
+    <t>"MEADOW BUTTERCUP"</t>
+  </si>
+  <si>
+    <t>Meadow Buttercup</t>
+  </si>
+  <si>
+    <t>Meadow Buttercup is a wildflower native to Europe. It has a bright yellow flower with five petals and a yellow center. It blooms in the spring and is often used as a symbol of cheerfulness and joy.</t>
+  </si>
+  <si>
+    <t>"MEADOW CRANESBILL"</t>
+  </si>
+  <si>
+    <t>Meadow Cranesbill</t>
+  </si>
+  <si>
+    <t>Meadow Cranesbill is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of faithfulness and loyalty.</t>
+  </si>
+  <si>
+    <t>"MEADOW SAFFRON"</t>
+  </si>
+  <si>
+    <t>Meadow Saffron</t>
+  </si>
+  <si>
+    <t>Meadow Saffron is a tall, yellow flower native to Europe. It has a yellow, cup-shaped flower with a yellow center and a long, thin stem. It blooms in the fall and is often found in meadows and woodlands.</t>
+  </si>
+  <si>
+    <t>"MEADOW VETCHLING"</t>
+  </si>
+  <si>
+    <t>Meadow Vetchling</t>
+  </si>
+  <si>
+    <t>Meadow Vetchling is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of joy and happiness.</t>
+  </si>
+  <si>
+    <t>"MEADOWSWEET"</t>
+  </si>
+  <si>
+    <t>Meadowsweet</t>
+  </si>
+  <si>
+    <t>Meadowsweet is a wildflower native to Europe. It has a white flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of love and joy.</t>
+  </si>
+  <si>
+    <t>"OXEYE DAISY"</t>
+  </si>
+  <si>
+    <t>Oxeye Daisy</t>
+  </si>
+  <si>
+    <t>Oxeye Daisy is a wildflower native to Europe. It has a white flower with a yellow center and a ring of petals. It blooms in the summer and is often used as a symbol of innocence and purity.</t>
+  </si>
+  <si>
+    <t>"PANSY"</t>
+  </si>
+  <si>
+    <t>Pansy</t>
+  </si>
+  <si>
+    <t>Pansy is a small, colorful flower native to Europe. It has a colorful, heart-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in gardens and meadows.</t>
+  </si>
+  <si>
+    <t>"PRIMROSE"</t>
+  </si>
+  <si>
+    <t>Primrose</t>
+  </si>
+  <si>
+    <t>Primrose is a small, yellow flower native to Europe. It has a yellow, bell-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in meadows and woodlands.</t>
+  </si>
+  <si>
+    <t>"RAGGED ROBIN"</t>
+  </si>
+  <si>
+    <t>Ragged Robin</t>
+  </si>
+  <si>
+    <t>Ragged Robin is a wildflower native to Europe. It has a pink flower with five petals and a yellow center. It blooms in the spring and is often used as a symbol of joy and happiness.</t>
+  </si>
+  <si>
+    <t>"RED BARTSIA"</t>
+  </si>
+  <si>
+    <t>Red Bartsia</t>
+  </si>
+  <si>
+    <t>Red Bartsia is a wildflower native to Europe. It has a pink flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of love and romance.</t>
+  </si>
+  <si>
+    <t>"RED CAMPION"</t>
+  </si>
+  <si>
+    <t>Red Campion</t>
+  </si>
+  <si>
+    <t>Red Campion is a wildflower native to Europe. It has a pink flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of passion and romance.</t>
+  </si>
+  <si>
+    <t>"RED CLOVER"</t>
+  </si>
+  <si>
+    <t>Red Clover</t>
+  </si>
+  <si>
+    <t>Red Clover is a wildflower native to Europe. It has a pink flower with four petals and a yellow center. It blooms in the summer and is often used as a symbol of luck and good fortune.</t>
+  </si>
+  <si>
+    <t>"RIBWORT PLANTAIN"</t>
+  </si>
+  <si>
+    <t>Ribwort Plantain</t>
+  </si>
+  <si>
+    <t>Ribwort Plantain is a wildflower native to Europe. It has a yellow flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of luck and good fortune.</t>
+  </si>
+  <si>
+    <t>"SELFHEAL"</t>
+  </si>
+  <si>
+    <t>Selfheal</t>
+  </si>
+  <si>
+    <t>Selfheal is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of protection and healing.</t>
+  </si>
+  <si>
+    <t>"SNOWDROP"</t>
+  </si>
+  <si>
+    <t>Snowdrop</t>
+  </si>
+  <si>
+    <t>Snowdrop is a small, white flower native to Europe. It has a white, bell-shaped flower with a yellow center and a long, thin stem. It blooms in the winter and is often found in woodlands and meadows.</t>
+  </si>
+  <si>
+    <t>"SUNFLOWER"</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Sunflower is a tall, yellow flower native to Europe. It has a yellow, daisy-shaped flower with a yellow center and a long, thin stem. It blooms in the summer and is often found in meadows and gardens.</t>
+  </si>
+  <si>
+    <t>"TULIP"</t>
+  </si>
+  <si>
+    <t>Tulip</t>
+  </si>
+  <si>
+    <t>Tulip is a tall, colorful flower native to Europe. It has a colorful, cup-shaped flower with a yellow center and a long, thin stem. It blooms in the spring and is often found in gardens and meadows.</t>
+  </si>
+  <si>
+    <t>"VIOLET"</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Violet is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the spring and is often used as a symbol of faithfulness and humility.</t>
+  </si>
+  <si>
+    <t>"WILD CARROT"</t>
+  </si>
+  <si>
+    <t>Wild Carrot</t>
+  </si>
+  <si>
+    <t>Wild Carrot is a wildflower native to Europe. It has a white flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of health and vitality.</t>
+  </si>
+  <si>
+    <t>"WILD GARLIC"</t>
+  </si>
+  <si>
+    <t>Wild Garlic</t>
+  </si>
+  <si>
+    <t>Wild Garlic is a wildflower native to Europe. It has a white flower with six petals and a yellow center. It blooms in the spring and is often used as a symbol of health and vitality.</t>
+  </si>
+  <si>
+    <t>"WILD MARJORAM"</t>
+  </si>
+  <si>
+    <t>Wild Marjoram</t>
+  </si>
+  <si>
+    <t>Wild Marjoram is a wildflower native to Europe. It has a pink flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of love and romance.</t>
+  </si>
+  <si>
+    <t>"WILD THYME"</t>
+  </si>
+  <si>
+    <t>Wild Thyme</t>
+  </si>
+  <si>
+    <t>Wild Thyme is a wildflower native to Europe. It has a purple flower with five petals and a yellow center. It blooms in the summer and is often used as a symbol of courage and strength.</t>
+  </si>
+  <si>
+    <t>"YARROW"</t>
+  </si>
+  <si>
+    <t>Yarrow</t>
+  </si>
+  <si>
+    <t>Yarrow is a wildflower native to Europe. It has a white flower with a yellow center and a ring of petals. It blooms in the summer and is often used as a symbol of healing and protection.</t>
+  </si>
+  <si>
+    <t>"YELLOW FLAG"</t>
+  </si>
+  <si>
+    <t>Yellow Flag</t>
+  </si>
+  <si>
+    <t>Yellow Flag is a wildflower native to Europe. It has a yellow flower with three petals and a yellow center. It blooms in the summer and is often used as a symbol of optimism and hope.</t>
   </si>
 </sst>
 </file>
@@ -120,11 +675,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,27 +1076,198 @@
             <c:strRef>
               <c:f>[0]!PlantNames</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>White Rose</c:v>
+                  <c:v>Alpine Pasqueflower</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Red Rose</c:v>
+                  <c:v>Anemone Coronaria</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Yellow Rose</c:v>
+                  <c:v>Bellflower</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Black Rose</c:v>
+                  <c:v>Bird's-foot Trefoil</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Purple Rose</c:v>
+                  <c:v>Bluebell</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>New rose</c:v>
+                  <c:v>Bugle</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Some rose</c:v>
+                  <c:v>Buttercup</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Common Bird's-foot Trefoil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Common Fleabane</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Common Gorse</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Common Knapweed</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Common Milkwort</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Common Restharrow</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Common Sorrel</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Common Stork's-bill</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Common Toadflax</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Common Valerian</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Common Vetch</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cornflower</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Cowslip</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Creeping Cinquefoil</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Cuckoo Flower</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Daffodil</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Daisy</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Field Bindweed</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Field Scabious</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Forget-me-not</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Foxglove</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Gentian</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Greater Plantain</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Greater Stitchwort</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Harebell</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Heath Bedstraw</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Heath Speedwell</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Heather</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Hedge Woundwort</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Iris</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Lady's Mantle</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Lavender</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Lily of the Valley</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Meadow Buttercup</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Meadow Cranesbill</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Meadow Saffron</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Meadow Vetchling</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Meadowsweet</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Oxeye Daisy</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Pansy</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Primrose</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Ragged Robin</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Red Bartsia</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Red Campion</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Red Clover</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Ribwort Plantain</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Selfheal</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Snowdrop</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Sunflower</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Tulip</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Violet</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Wild Carrot</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Wild Garlic</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Wild Marjoram</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Wild Thyme</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Yarrow</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Yellow Flag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -548,28 +1276,199 @@
             <c:numRef>
               <c:f>[0]!Occurrences</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,6 +1537,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1567462575"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -650,11 +1550,12 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1134079567"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -665,42 +1566,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1409,10 +2274,10 @@
       <xdr:rowOff>95255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1441,8 +2306,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:F8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F8" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:F65" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+    <sortCondition descending="1" ref="F1:F65"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PlantCode"/>
     <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Name"/>
@@ -1752,9 +2620,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -1783,114 +2651,1351 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
+      <c r="D8" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9CCFDF-8E89-4895-84D2-669601753AB0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/App/BioDiversityPlant.xlsx
+++ b/App/BioDiversityPlant.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/soalex_microsoft_com/Documents/Code/bcsamples-onboarding/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE02A37-42FF-412F-BCD3-6EB2D5942200}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Overview" sheetId="2" r:id="rId2"/>
+    <sheet name="Plants" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Occurrences">OFFSET(Data!$F$2,0,0,COUNTA(Data!$F:$F)-1)</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="200">
   <si>
     <t>PlantCode</t>
   </si>
@@ -635,13 +636,16 @@
   </si>
   <si>
     <t>Yellow Flag is a wildflower native to Europe. It has a yellow flower with three petals and a yellow center. It blooms in the summer and is often used as a symbol of optimism and hope.</t>
+  </si>
+  <si>
+    <t>Family</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -654,13 +658,26 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -675,13 +692,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2306,18 +2324,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:F65" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:G65" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
     <sortCondition descending="1" ref="F1:F65"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PlantCode"/>
     <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Name"/>
     <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description"/>
     <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="IsPollinator"/>
     <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PollinatedBy"/>
     <tableColumn id="6" xr3:uid="{B3DC1C44-3063-44AB-A12C-75F6BF5212DC}" name="ReportedOccurencesLastyear"/>
+    <tableColumn id="7" xr3:uid="{75B25AA1-94CE-4B11-A8E5-8E4AC61E09C9}" name="Family"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2620,21 +2639,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2653,8 +2673,11 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2675,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2696,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2717,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2738,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2759,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2780,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2801,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2822,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2843,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -2864,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -2885,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -2906,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2927,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2948,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -4000,8 +4023,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4021,6 +4045,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64896F3-3AD0-4167-B3A8-257673954302}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/App/BioDiversityPlant.xlsx
+++ b/App/BioDiversityPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/soalex_microsoft_com/Documents/Code/bcsamples-onboarding/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE02A37-42FF-412F-BCD3-6EB2D5942200}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F78971C1-AC02-4589-B8DC-3EEEDD16D672}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Self pollinated</t>
   </si>
   <si>
-    <t>ReportedOccurencesLastyear</t>
-  </si>
-  <si>
     <t>"ALPINE PASQUEFLOWER"</t>
   </si>
   <si>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>Family</t>
+  </si>
+  <si>
+    <t>Occurences</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2335,7 @@
     <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description"/>
     <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="IsPollinator"/>
     <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PollinatedBy"/>
-    <tableColumn id="6" xr3:uid="{B3DC1C44-3063-44AB-A12C-75F6BF5212DC}" name="ReportedOccurencesLastyear"/>
+    <tableColumn id="6" xr3:uid="{B3DC1C44-3063-44AB-A12C-75F6BF5212DC}" name="Occurences"/>
     <tableColumn id="7" xr3:uid="{75B25AA1-94CE-4B11-A8E5-8E4AC61E09C9}" name="Family"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2643,7 +2643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,21 +2671,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="3" t="b">
         <f>FALSE()</f>
@@ -2700,13 +2700,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="3" t="b">
         <f>FALSE()</f>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="3" t="b">
         <f>FALSE()</f>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="3" t="b">
         <f>FALSE()</f>
@@ -2763,13 +2763,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="3" t="b">
         <f>FALSE()</f>
@@ -2784,13 +2784,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="3" t="b">
         <f>FALSE()</f>
@@ -2805,13 +2805,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="3" t="b">
         <f>FALSE()</f>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="3" t="b">
         <f>FALSE()</f>
@@ -2847,13 +2847,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D10" s="3" t="b">
         <f>FALSE()</f>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="3" t="b">
         <f>FALSE()</f>
@@ -2889,13 +2889,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="3" t="b">
         <f>FALSE()</f>
@@ -2910,13 +2910,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="3" t="b">
         <f>FALSE()</f>
@@ -2931,13 +2931,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="3" t="b">
         <f>FALSE()</f>
@@ -2952,13 +2952,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="3" t="b">
         <f>FALSE()</f>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="3" t="b">
         <f>FALSE()</f>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="3" t="b">
         <f>FALSE()</f>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D18" s="3" t="b">
         <f>FALSE()</f>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="3" t="b">
         <f>FALSE()</f>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D20" s="3" t="b">
         <f>FALSE()</f>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="3" t="b">
         <f>FALSE()</f>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="3" t="b">
         <f>FALSE()</f>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D23" s="3" t="b">
         <f>FALSE()</f>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D24" s="3" t="b">
         <f>FALSE()</f>
@@ -3162,13 +3162,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D25" s="3" t="b">
         <f>FALSE()</f>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D26" s="3" t="b">
         <f>FALSE()</f>
@@ -3204,13 +3204,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D27" s="3" t="b">
         <f>FALSE()</f>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D28" s="3" t="b">
         <f>FALSE()</f>
@@ -3246,13 +3246,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D29" s="3" t="b">
         <f>FALSE()</f>
@@ -3267,13 +3267,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="3" t="b">
         <f>FALSE()</f>
@@ -3288,13 +3288,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D31" s="3" t="b">
         <f>FALSE()</f>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D32" s="3" t="b">
         <f>FALSE()</f>
@@ -3330,13 +3330,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D33" s="3" t="b">
         <f>FALSE()</f>
@@ -3351,13 +3351,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D34" s="3" t="b">
         <f>FALSE()</f>
@@ -3372,13 +3372,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D35" s="3" t="b">
         <f>FALSE()</f>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D36" s="3" t="b">
         <f>FALSE()</f>
@@ -3414,13 +3414,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D37" s="3" t="b">
         <f>FALSE()</f>
@@ -3435,13 +3435,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D38" s="3" t="b">
         <f>FALSE()</f>
@@ -3456,13 +3456,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D39" s="3" t="b">
         <f>FALSE()</f>
@@ -3477,13 +3477,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D40" s="3" t="b">
         <f>FALSE()</f>
@@ -3498,13 +3498,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D41" s="3" t="b">
         <f>FALSE()</f>
@@ -3519,13 +3519,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D42" s="3" t="b">
         <f>FALSE()</f>
@@ -3540,13 +3540,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D43" s="3" t="b">
         <f>FALSE()</f>
@@ -3561,13 +3561,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D44" s="3" t="b">
         <f>FALSE()</f>
@@ -3582,13 +3582,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D45" s="3" t="b">
         <f>FALSE()</f>
@@ -3603,13 +3603,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="D46" s="3" t="b">
         <f>FALSE()</f>
@@ -3624,13 +3624,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D47" s="3" t="b">
         <f>FALSE()</f>
@@ -3645,13 +3645,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D48" s="3" t="b">
         <f>FALSE()</f>
@@ -3666,13 +3666,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D49" s="3" t="b">
         <f>FALSE()</f>
@@ -3687,13 +3687,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D50" s="3" t="b">
         <f>FALSE()</f>
@@ -3708,13 +3708,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D51" s="3" t="b">
         <f>FALSE()</f>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D52" s="3" t="b">
         <f>FALSE()</f>
@@ -3750,13 +3750,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D53" s="3" t="b">
         <f>FALSE()</f>
@@ -3771,13 +3771,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D54" s="3" t="b">
         <f>FALSE()</f>
@@ -3792,13 +3792,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D55" s="3" t="b">
         <f>FALSE()</f>
@@ -3813,13 +3813,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D56" s="3" t="b">
         <f>FALSE()</f>
@@ -3834,13 +3834,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D57" s="3" t="b">
         <f>FALSE()</f>
@@ -3855,13 +3855,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D58" s="3" t="b">
         <f>FALSE()</f>
@@ -3876,13 +3876,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D59" s="3" t="b">
         <f>FALSE()</f>
@@ -3897,13 +3897,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D60" s="3" t="b">
         <f>FALSE()</f>
@@ -3918,13 +3918,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D61" s="3" t="b">
         <f>FALSE()</f>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D62" s="3" t="b">
         <f>FALSE()</f>
@@ -3960,13 +3960,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D63" s="3" t="b">
         <f>FALSE()</f>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D64" s="3" t="b">
         <f>FALSE()</f>
@@ -4002,13 +4002,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D65" s="3" t="b">
         <f>FALSE()</f>

--- a/App/BioDiversityPlant.xlsx
+++ b/App/BioDiversityPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/soalex_microsoft_com/Documents/Code/bcsamples-onboarding/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F78971C1-AC02-4589-B8DC-3EEEDD16D672}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4663598-D45D-4636-AF64-34DAE3006424}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
     <t>Family</t>
   </si>
   <si>
-    <t>Occurences</t>
+    <t>Occurrences</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2335,7 @@
     <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description"/>
     <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="IsPollinator"/>
     <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PollinatedBy"/>
-    <tableColumn id="6" xr3:uid="{B3DC1C44-3063-44AB-A12C-75F6BF5212DC}" name="Occurences"/>
+    <tableColumn id="6" xr3:uid="{B3DC1C44-3063-44AB-A12C-75F6BF5212DC}" name="Occurrences"/>
     <tableColumn id="7" xr3:uid="{75B25AA1-94CE-4B11-A8E5-8E4AC61E09C9}" name="Family"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2643,7 +2643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
